--- a/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7007E8CF-7209-450E-8B5D-B8941267B137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39F88C9-11A5-44BC-ADB0-EF81A12A7847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6D712D4-6392-42D5-8060-CE68227340D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E540E4D-470B-482B-9826-8A067A5A675D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="350">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,916 +77,937 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>2,54%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>4,52%</t>
   </si>
   <si>
     <t>6,33%</t>
@@ -995,70 +1016,73 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1473,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1251F731-59EC-41E4-8AC6-9E64A685EE84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158A61F3-4564-434E-B165-BEEF90BF1DA1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1651,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1669,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1678,19 +1702,19 @@
         <v>4064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -1699,13 +1723,13 @@
         <v>6568</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -1714,13 +1738,13 @@
         <v>2567</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -1729,19 +1753,19 @@
         <v>9135</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -1750,13 +1774,13 @@
         <v>9105</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -1765,13 +1789,13 @@
         <v>12268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -1780,19 +1804,19 @@
         <v>21373</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>307</v>
@@ -1801,13 +1825,13 @@
         <v>239568</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
@@ -1816,13 +1840,13 @@
         <v>254253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -1831,13 +1855,13 @@
         <v>493822</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1876,13 @@
         <v>259054</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -1867,13 +1891,13 @@
         <v>270925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1882,18 +1906,18 @@
         <v>529980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1905,13 +1929,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1920,13 +1944,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1938,10 +1962,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1983,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1971,13 +1995,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1986,19 +2010,19 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2007,13 +2031,13 @@
         <v>33430</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -2022,13 +2046,13 @@
         <v>20460</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2037,19 +2061,19 @@
         <v>53890</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>127</v>
@@ -2058,13 +2082,13 @@
         <v>175833</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -2073,13 +2097,13 @@
         <v>156897</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -2088,19 +2112,19 @@
         <v>332730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>228</v>
@@ -2109,13 +2133,13 @@
         <v>307502</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -2124,13 +2148,13 @@
         <v>369659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
@@ -2139,13 +2163,13 @@
         <v>677161</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2184,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2175,13 +2199,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2190,18 +2214,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2237,13 @@
         <v>1192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2228,13 +2252,13 @@
         <v>617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2249,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2288,13 @@
         <v>3848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2279,13 +2303,13 @@
         <v>2755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2294,19 +2318,19 @@
         <v>6603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2315,13 +2339,13 @@
         <v>11238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2330,13 +2354,13 @@
         <v>12906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2345,19 +2369,19 @@
         <v>24144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>29</v>
@@ -2366,13 +2390,13 @@
         <v>28966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2381,13 +2405,13 @@
         <v>27167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2396,19 +2420,19 @@
         <v>56134</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>313</v>
@@ -2417,13 +2441,13 @@
         <v>275960</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
@@ -2432,13 +2456,13 @@
         <v>322590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -2447,13 +2471,13 @@
         <v>598550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2492,13 @@
         <v>321204</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
@@ -2483,13 +2507,13 @@
         <v>366036</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>887</v>
@@ -2498,18 +2522,18 @@
         <v>687240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2524,10 +2548,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2536,13 +2560,13 @@
         <v>431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2551,13 +2575,13 @@
         <v>431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,10 +2599,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2587,13 +2611,13 @@
         <v>438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2602,19 +2626,19 @@
         <v>438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -2638,13 +2662,13 @@
         <v>7114</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -2653,19 +2677,19 @@
         <v>18451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -2674,13 +2698,13 @@
         <v>2688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2689,13 +2713,13 @@
         <v>3647</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2704,10 +2728,10 @@
         <v>6335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>152</v>
@@ -2716,7 +2740,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>267</v>
@@ -2761,7 +2785,7 @@
         <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2800,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2791,13 +2815,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2806,18 +2830,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2832,10 +2856,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2847,10 +2871,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2862,10 +2886,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2904,13 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2895,13 +2919,13 @@
         <v>2686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2910,19 +2934,19 @@
         <v>6843</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -2931,13 +2955,13 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2946,13 +2970,13 @@
         <v>3827</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2961,19 +2985,19 @@
         <v>12212</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -2982,13 +3006,13 @@
         <v>115643</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
@@ -2997,13 +3021,13 @@
         <v>171405</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
@@ -3012,19 +3036,19 @@
         <v>287048</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3033,13 +3057,13 @@
         <v>65680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -3048,13 +3072,13 @@
         <v>53126</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -3063,13 +3087,13 @@
         <v>118806</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3108,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3099,13 +3123,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3114,18 +3138,18 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3137,13 +3161,13 @@
         <v>4582</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3152,13 +3176,13 @@
         <v>696</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3167,13 +3191,13 @@
         <v>5279</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3212,13 @@
         <v>4969</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>108</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3203,13 +3227,13 @@
         <v>2481</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -3218,19 +3242,19 @@
         <v>7450</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
@@ -3239,13 +3263,13 @@
         <v>14732</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3254,13 +3278,13 @@
         <v>13086</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -3269,19 +3293,19 @@
         <v>27818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>61</v>
@@ -3290,13 +3314,13 @@
         <v>52060</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -3305,13 +3329,13 @@
         <v>32349</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>111</v>
@@ -3320,19 +3344,19 @@
         <v>84408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>282</v>
@@ -3341,13 +3365,13 @@
         <v>200880</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>380</v>
@@ -3356,13 +3380,13 @@
         <v>225400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>662</v>
@@ -3371,13 +3395,13 @@
         <v>426280</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3416,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3407,13 +3431,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3422,18 +3446,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3445,13 +3469,13 @@
         <v>2388</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3460,13 +3484,13 @@
         <v>7073</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -3475,13 +3499,13 @@
         <v>9461</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3520,13 @@
         <v>6594</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -3511,13 +3535,13 @@
         <v>5189</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -3526,19 +3550,19 @@
         <v>11783</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>42</v>
@@ -3547,13 +3571,13 @@
         <v>47199</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>60</v>
@@ -3562,13 +3586,13 @@
         <v>53086</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M42" s="7">
         <v>102</v>
@@ -3577,19 +3601,19 @@
         <v>100285</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>160</v>
@@ -3598,13 +3622,13 @@
         <v>160096</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
@@ -3613,13 +3637,13 @@
         <v>156557</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
@@ -3628,19 +3652,19 @@
         <v>316652</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>379</v>
@@ -3649,13 +3673,13 @@
         <v>403205</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H44" s="7">
         <v>653</v>
@@ -3664,13 +3688,13 @@
         <v>575333</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M44" s="7">
         <v>1032</v>
@@ -3679,13 +3703,13 @@
         <v>978538</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3724,13 @@
         <v>619482</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
@@ -3715,33 +3739,33 @@
         <v>797238</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1540</v>
       </c>
       <c r="N45" s="7">
-        <v>1416719</v>
+        <v>1416720</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3756,10 +3780,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3768,13 +3792,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3783,13 +3807,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3828,13 @@
         <v>13004</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3819,13 +3843,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>279</v>
+        <v>168</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
@@ -3834,19 +3858,19 @@
         <v>17640</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>18</v>
+        <v>286</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -3855,13 +3879,13 @@
         <v>49793</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -3870,13 +3894,13 @@
         <v>41129</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
         <v>91</v>
@@ -3885,19 +3909,19 @@
         <v>90923</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>209</v>
@@ -3906,13 +3930,13 @@
         <v>232217</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H49" s="7">
         <v>247</v>
@@ -3921,13 +3945,13 @@
         <v>201513</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M49" s="7">
         <v>456</v>
@@ -3936,19 +3960,19 @@
         <v>433729</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>493</v>
@@ -3957,13 +3981,13 @@
         <v>562580</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H50" s="7">
         <v>763</v>
@@ -3972,13 +3996,13 @@
         <v>617698</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M50" s="7">
         <v>1256</v>
@@ -3987,13 +4011,13 @@
         <v>1180277</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4032,13 @@
         <v>857593</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4023,13 +4047,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -4038,13 +4062,13 @@
         <v>1723265</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4085,13 @@
         <v>10298</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="H52" s="7">
         <v>14</v>
@@ -4076,13 +4100,13 @@
         <v>11793</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M52" s="7">
         <v>23</v>
@@ -4091,13 +4115,13 @@
         <v>22091</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4136,13 @@
         <v>35711</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H53" s="7">
         <v>33</v>
@@ -4127,13 +4151,13 @@
         <v>23138</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
@@ -4142,19 +4166,19 @@
         <v>58849</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="7">
         <v>175</v>
@@ -4163,13 +4187,13 @@
         <v>182683</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H54" s="7">
         <v>203</v>
@@ -4178,13 +4202,13 @@
         <v>154176</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="M54" s="7">
         <v>378</v>
@@ -4193,19 +4217,19 @@
         <v>336859</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>199</v>
+        <v>329</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>770</v>
@@ -4214,13 +4238,13 @@
         <v>776607</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H55" s="7">
         <v>1163</v>
@@ -4229,13 +4253,13 @@
         <v>761803</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M55" s="7">
         <v>1933</v>
@@ -4244,19 +4268,19 @@
         <v>1538410</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2356</v>
@@ -4265,13 +4289,13 @@
         <v>2352921</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H56" s="7">
         <v>3916</v>
@@ -4280,28 +4304,28 @@
         <v>2830887</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M56" s="7">
         <v>6272</v>
       </c>
       <c r="N56" s="7">
-        <v>5183808</v>
+        <v>5183809</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4340,13 @@
         <v>3358220</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
@@ -4331,33 +4355,33 @@
         <v>3781797</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
       </c>
       <c r="N57" s="7">
-        <v>7140017</v>
+        <v>7140018</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39F88C9-11A5-44BC-ADB0-EF81A12A7847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93F8D14-2623-4358-8EE4-01C1376AE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E540E4D-470B-482B-9826-8A067A5A675D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{202E6DD9-0809-4FFD-8B2F-476E322D863D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1497,7 +1497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158A61F3-4564-434E-B165-BEEF90BF1DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C46B488-4E97-466A-B0CF-0CD73F0116D4}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93F8D14-2623-4358-8EE4-01C1376AE595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B913E00-57D9-4713-94CF-138268280A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{202E6DD9-0809-4FFD-8B2F-476E322D863D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{496743AA-7B84-4576-B454-F86247C16FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="342">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,937 +77,916 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,87%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>4,52%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>6,33%</t>
@@ -1016,73 +995,70 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>20,14%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>70,06%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>74,86%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1497,7 +1473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C46B488-4E97-466A-B0CF-0CD73F0116D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CECB64-1A20-4CC1-8E26-5429C4AB75C0}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1675,10 +1651,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1693,7 +1669,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1702,19 +1678,19 @@
         <v>4064</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
@@ -1723,13 +1699,13 @@
         <v>6568</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -1738,13 +1714,13 @@
         <v>2567</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -1753,19 +1729,19 @@
         <v>9135</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -1774,13 +1750,13 @@
         <v>9105</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -1789,13 +1765,13 @@
         <v>12268</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -1804,19 +1780,19 @@
         <v>21373</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="7">
         <v>307</v>
@@ -1825,13 +1801,13 @@
         <v>239568</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
@@ -1840,13 +1816,13 @@
         <v>254253</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
@@ -1855,13 +1831,13 @@
         <v>493822</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,13 +1852,13 @@
         <v>259054</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -1891,13 +1867,13 @@
         <v>270925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1906,18 +1882,18 @@
         <v>529980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1929,13 +1905,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1944,13 +1920,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1962,10 +1938,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,10 +1959,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -1995,13 +1971,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2010,19 +1986,19 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
@@ -2031,13 +2007,13 @@
         <v>33430</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -2046,13 +2022,13 @@
         <v>20460</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
@@ -2061,19 +2037,19 @@
         <v>53890</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>127</v>
@@ -2082,13 +2058,13 @@
         <v>175833</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -2097,13 +2073,13 @@
         <v>156897</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
@@ -2112,19 +2088,19 @@
         <v>332730</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
         <v>228</v>
@@ -2133,13 +2109,13 @@
         <v>307502</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
@@ -2148,13 +2124,13 @@
         <v>369659</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
@@ -2163,13 +2139,13 @@
         <v>677161</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2160,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2199,13 +2175,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2214,18 +2190,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2237,13 +2213,13 @@
         <v>1192</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2252,13 +2228,13 @@
         <v>617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2273,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2264,13 @@
         <v>3848</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2303,13 +2279,13 @@
         <v>2755</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2318,19 +2294,19 @@
         <v>6603</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
@@ -2339,13 +2315,13 @@
         <v>11238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2354,13 +2330,13 @@
         <v>12906</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
@@ -2369,19 +2345,19 @@
         <v>24144</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>29</v>
@@ -2390,13 +2366,13 @@
         <v>28966</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -2405,13 +2381,13 @@
         <v>27167</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2420,19 +2396,19 @@
         <v>56134</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="7">
         <v>313</v>
@@ -2441,13 +2417,13 @@
         <v>275960</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
@@ -2456,13 +2432,13 @@
         <v>322590</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
@@ -2471,13 +2447,13 @@
         <v>598550</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2468,13 @@
         <v>321204</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
@@ -2507,13 +2483,13 @@
         <v>366036</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>887</v>
@@ -2522,18 +2498,18 @@
         <v>687240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2548,10 +2524,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2560,13 +2536,13 @@
         <v>431</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2575,13 +2551,13 @@
         <v>431</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2599,10 +2575,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2611,13 +2587,13 @@
         <v>438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2626,19 +2602,19 @@
         <v>438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -2662,13 +2638,13 @@
         <v>7114</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -2677,19 +2653,19 @@
         <v>18451</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
@@ -2698,13 +2674,13 @@
         <v>2688</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2713,13 +2689,13 @@
         <v>3647</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2728,10 +2704,10 @@
         <v>6335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>152</v>
@@ -2740,7 +2716,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7">
         <v>267</v>
@@ -2785,7 +2761,7 @@
         <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2776,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2815,13 +2791,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2830,18 +2806,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2856,10 +2832,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2871,10 +2847,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2886,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2880,13 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2919,13 +2895,13 @@
         <v>2686</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2934,19 +2910,19 @@
         <v>6843</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -2955,13 +2931,13 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -2970,13 +2946,13 @@
         <v>3827</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2985,19 +2961,19 @@
         <v>12212</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -3006,13 +2982,13 @@
         <v>115643</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
@@ -3021,13 +2997,13 @@
         <v>171405</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
@@ -3036,19 +3012,19 @@
         <v>287048</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3057,13 +3033,13 @@
         <v>65680</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
@@ -3072,13 +3048,13 @@
         <v>53126</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
@@ -3087,13 +3063,13 @@
         <v>118806</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3084,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3123,13 +3099,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3138,18 +3114,18 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3161,13 +3137,13 @@
         <v>4582</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3176,13 +3152,13 @@
         <v>696</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3191,13 +3167,13 @@
         <v>5279</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,13 +3188,13 @@
         <v>4969</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>3</v>
@@ -3227,13 +3203,13 @@
         <v>2481</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>9</v>
@@ -3242,19 +3218,19 @@
         <v>7450</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
@@ -3263,13 +3239,13 @@
         <v>14732</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3278,13 +3254,13 @@
         <v>13086</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -3293,19 +3269,19 @@
         <v>27818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>61</v>
@@ -3314,13 +3290,13 @@
         <v>52060</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
@@ -3329,13 +3305,13 @@
         <v>32349</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M37" s="7">
         <v>111</v>
@@ -3344,19 +3320,19 @@
         <v>84408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>282</v>
@@ -3365,13 +3341,13 @@
         <v>200880</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>380</v>
@@ -3380,13 +3356,13 @@
         <v>225400</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M38" s="7">
         <v>662</v>
@@ -3395,13 +3371,13 @@
         <v>426280</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3392,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3431,13 +3407,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3446,18 +3422,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3469,13 +3445,13 @@
         <v>2388</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3484,13 +3460,13 @@
         <v>7073</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
@@ -3499,13 +3475,13 @@
         <v>9461</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3496,13 @@
         <v>6594</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
@@ -3535,13 +3511,13 @@
         <v>5189</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
@@ -3550,19 +3526,19 @@
         <v>11783</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>42</v>
@@ -3571,13 +3547,13 @@
         <v>47199</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H42" s="7">
         <v>60</v>
@@ -3586,13 +3562,13 @@
         <v>53086</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M42" s="7">
         <v>102</v>
@@ -3601,19 +3577,19 @@
         <v>100285</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>160</v>
@@ -3622,13 +3598,13 @@
         <v>160096</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
@@ -3637,13 +3613,13 @@
         <v>156557</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
@@ -3652,19 +3628,19 @@
         <v>316652</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44" s="7">
         <v>379</v>
@@ -3673,13 +3649,13 @@
         <v>403205</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H44" s="7">
         <v>653</v>
@@ -3688,13 +3664,13 @@
         <v>575333</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M44" s="7">
         <v>1032</v>
@@ -3703,13 +3679,13 @@
         <v>978538</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3700,13 @@
         <v>619482</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
@@ -3739,33 +3715,33 @@
         <v>797238</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>1540</v>
       </c>
       <c r="N45" s="7">
-        <v>1416720</v>
+        <v>1416719</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3780,10 +3756,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3792,13 +3768,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3807,13 +3783,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,13 +3804,13 @@
         <v>13004</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3843,13 +3819,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
@@ -3858,19 +3834,19 @@
         <v>17640</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>286</v>
+        <v>18</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -3879,13 +3855,13 @@
         <v>49793</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
@@ -3894,13 +3870,13 @@
         <v>41129</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M48" s="7">
         <v>91</v>
@@ -3909,19 +3885,19 @@
         <v>90923</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>209</v>
@@ -3930,13 +3906,13 @@
         <v>232217</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H49" s="7">
         <v>247</v>
@@ -3945,13 +3921,13 @@
         <v>201513</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M49" s="7">
         <v>456</v>
@@ -3960,19 +3936,19 @@
         <v>433729</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C50" s="7">
         <v>493</v>
@@ -3981,13 +3957,13 @@
         <v>562580</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H50" s="7">
         <v>763</v>
@@ -3996,13 +3972,13 @@
         <v>617698</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M50" s="7">
         <v>1256</v>
@@ -4011,13 +3987,13 @@
         <v>1180277</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4008,13 @@
         <v>857593</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4047,13 +4023,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -4062,13 +4038,13 @@
         <v>1723265</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4061,13 @@
         <v>10298</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="H52" s="7">
         <v>14</v>
@@ -4100,13 +4076,13 @@
         <v>11793</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M52" s="7">
         <v>23</v>
@@ -4115,13 +4091,13 @@
         <v>22091</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4112,13 @@
         <v>35711</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H53" s="7">
         <v>33</v>
@@ -4151,13 +4127,13 @@
         <v>23138</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
@@ -4166,19 +4142,19 @@
         <v>58849</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>321</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>175</v>
@@ -4187,13 +4163,13 @@
         <v>182683</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H54" s="7">
         <v>203</v>
@@ -4202,13 +4178,13 @@
         <v>154176</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M54" s="7">
         <v>378</v>
@@ -4217,19 +4193,19 @@
         <v>336859</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>770</v>
@@ -4238,13 +4214,13 @@
         <v>776607</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H55" s="7">
         <v>1163</v>
@@ -4253,13 +4229,13 @@
         <v>761803</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M55" s="7">
         <v>1933</v>
@@ -4268,19 +4244,19 @@
         <v>1538410</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7">
         <v>2356</v>
@@ -4289,13 +4265,13 @@
         <v>2352921</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H56" s="7">
         <v>3916</v>
@@ -4304,28 +4280,28 @@
         <v>2830887</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M56" s="7">
         <v>6272</v>
       </c>
       <c r="N56" s="7">
-        <v>5183809</v>
+        <v>5183808</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4316,13 @@
         <v>3358220</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
@@ -4355,33 +4331,33 @@
         <v>3781797</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
       </c>
       <c r="N57" s="7">
-        <v>7140018</v>
+        <v>7140017</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B913E00-57D9-4713-94CF-138268280A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F729325-3BAC-43F0-8024-BC325A34C94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{496743AA-7B84-4576-B454-F86247C16FB5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{642E18A7-58DE-41FF-AB13-BF77FA5396FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="347">
   <si>
     <t>Población según la creencia de que las vacunas son efectivas en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -71,994 +71,1009 @@
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,03%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>5,0%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1473,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CECB64-1A20-4CC1-8E26-5429C4AB75C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D6BD34-EEC0-4A7A-B9C1-FC4A52EFFDF9}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1609,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1624,7 +1639,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1586</v>
+        <v>1644</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1645,7 +1660,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3139</v>
+        <v>3719</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1660,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>14</v>
@@ -1675,169 +1690,169 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>4064</v>
+        <v>4654</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>6568</v>
+        <v>7790</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <v>2567</v>
+        <v>2621</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>9135</v>
+        <v>10411</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>9105</v>
+        <v>10504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>12268</v>
+        <v>12871</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
       </c>
       <c r="N7" s="7">
-        <v>21373</v>
+        <v>23375</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>307</v>
       </c>
       <c r="D8" s="7">
-        <v>239568</v>
+        <v>287147</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>502</v>
       </c>
       <c r="I8" s="7">
-        <v>254253</v>
+        <v>271796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>809</v>
       </c>
       <c r="N8" s="7">
-        <v>493822</v>
+        <v>558943</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,51 +1864,51 @@
         <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>259054</v>
+        <v>309885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
       </c>
       <c r="I9" s="7">
-        <v>270925</v>
+        <v>289142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
       </c>
       <c r="N9" s="7">
-        <v>529980</v>
+        <v>599027</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1902,46 +1917,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1367</v>
+        <v>1283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2829</v>
+        <v>2778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,193 +1974,193 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>25</v>
       </c>
       <c r="D12" s="7">
-        <v>33430</v>
+        <v>32882</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
       </c>
       <c r="I12" s="7">
-        <v>20460</v>
+        <v>18928</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>55</v>
       </c>
       <c r="N12" s="7">
-        <v>53890</v>
+        <v>51810</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>127</v>
       </c>
       <c r="D13" s="7">
-        <v>175833</v>
+        <v>175939</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
       </c>
       <c r="I13" s="7">
-        <v>156897</v>
+        <v>146061</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>336</v>
       </c>
       <c r="N13" s="7">
-        <v>332730</v>
+        <v>322000</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>307502</v>
+        <v>307076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>369659</v>
+        <v>342892</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
       </c>
       <c r="N14" s="7">
-        <v>677161</v>
+        <v>649968</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2157,51 +2172,51 @@
         <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
       </c>
       <c r="I15" s="7">
-        <v>552412</v>
+        <v>513006</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
       </c>
       <c r="N15" s="7">
-        <v>1070639</v>
+        <v>1030399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2210,46 +2225,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1192</v>
+        <v>1210</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>617</v>
+        <v>562</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1809</v>
+        <v>1772</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,25 +2276,25 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3848</v>
+        <v>3778</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>2755</v>
+        <v>2568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>103</v>
@@ -2291,169 +2306,169 @@
         <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>6603</v>
+        <v>6346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>11238</v>
+        <v>11172</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>12906</v>
+        <v>12060</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>32</v>
       </c>
       <c r="N18" s="7">
-        <v>24144</v>
+        <v>23232</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>28966</v>
+        <v>28806</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>27167</v>
+        <v>25067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>56134</v>
+        <v>53872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>313</v>
       </c>
       <c r="D20" s="7">
-        <v>275960</v>
+        <v>270080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
       </c>
       <c r="I20" s="7">
-        <v>322590</v>
+        <v>301760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>778</v>
       </c>
       <c r="N20" s="7">
-        <v>598550</v>
+        <v>571839</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,51 +2480,51 @@
         <v>359</v>
       </c>
       <c r="D21" s="7">
-        <v>321204</v>
+        <v>315046</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
       </c>
       <c r="I21" s="7">
-        <v>366036</v>
+        <v>342017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>887</v>
       </c>
       <c r="N21" s="7">
-        <v>687240</v>
+        <v>657062</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2524,40 +2539,40 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,82 +2590,82 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>11338</v>
+        <v>9686</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>7114</v>
+        <v>6997</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>18451</v>
+        <v>16682</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>145</v>
@@ -2659,40 +2674,40 @@
         <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2688</v>
+        <v>2554</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>3647</v>
+        <v>3433</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>151</v>
@@ -2701,28 +2716,28 @@
         <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>6335</v>
+        <v>5986</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>297547</v>
+        <v>290152</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>153</v>
@@ -2737,7 +2752,7 @@
         <v>573</v>
       </c>
       <c r="I26" s="7">
-        <v>412826</v>
+        <v>460587</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>156</v>
@@ -2752,7 +2767,7 @@
         <v>840</v>
       </c>
       <c r="N26" s="7">
-        <v>710374</v>
+        <v>750740</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>159</v>
@@ -2761,7 +2776,7 @@
         <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,51 +2788,51 @@
         <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>311573</v>
+        <v>302391</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
       </c>
       <c r="I27" s="7">
-        <v>424456</v>
+        <v>471840</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
       </c>
       <c r="N27" s="7">
-        <v>736029</v>
+        <v>774232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2832,10 +2847,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2847,10 +2862,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2862,10 +2877,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2892,13 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>4157</v>
+        <v>3794</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>165</v>
@@ -2892,28 +2907,28 @@
         <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>2686</v>
+        <v>2339</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>6843</v>
+        <v>6132</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>170</v>
@@ -2922,31 +2937,31 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>8385</v>
+        <v>7560</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>171</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>3827</v>
+        <v>3470</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>174</v>
@@ -2958,118 +2973,118 @@
         <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>12212</v>
+        <v>11030</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
       </c>
       <c r="D31" s="7">
-        <v>115643</v>
+        <v>105561</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
       </c>
       <c r="I31" s="7">
-        <v>171405</v>
+        <v>154120</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
       </c>
       <c r="N31" s="7">
-        <v>287048</v>
+        <v>259681</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
       </c>
       <c r="D32" s="7">
-        <v>65680</v>
+        <v>59374</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>113</v>
       </c>
       <c r="I32" s="7">
-        <v>53126</v>
+        <v>47933</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>200</v>
       </c>
       <c r="N32" s="7">
-        <v>118806</v>
+        <v>107306</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,51 +3096,51 @@
         <v>277</v>
       </c>
       <c r="D33" s="7">
-        <v>193865</v>
+        <v>176288</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
       </c>
       <c r="I33" s="7">
-        <v>231044</v>
+        <v>207862</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
       </c>
       <c r="N33" s="7">
-        <v>424910</v>
+        <v>384150</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3134,46 +3149,46 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>4582</v>
+        <v>4513</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>5279</v>
+        <v>5154</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,10 +3200,10 @@
         <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>4969</v>
+        <v>4875</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>203</v>
@@ -3200,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="I35" s="7">
-        <v>2481</v>
+        <v>2206</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>205</v>
@@ -3215,169 +3230,169 @@
         <v>9</v>
       </c>
       <c r="N35" s="7">
-        <v>7450</v>
+        <v>7081</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>13</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>14732</v>
+        <v>14389</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
       </c>
       <c r="I36" s="7">
-        <v>13086</v>
+        <v>12394</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
       </c>
       <c r="N36" s="7">
-        <v>27818</v>
+        <v>26783</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>61</v>
       </c>
       <c r="D37" s="7">
-        <v>52060</v>
+        <v>51131</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="H37" s="7">
         <v>50</v>
       </c>
       <c r="I37" s="7">
-        <v>32349</v>
+        <v>30276</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="7">
         <v>111</v>
       </c>
       <c r="N37" s="7">
-        <v>84408</v>
+        <v>81408</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>282</v>
       </c>
       <c r="D38" s="7">
-        <v>200880</v>
+        <v>194727</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H38" s="7">
         <v>380</v>
       </c>
       <c r="I38" s="7">
-        <v>225400</v>
+        <v>210061</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M38" s="7">
         <v>662</v>
       </c>
       <c r="N38" s="7">
-        <v>426280</v>
+        <v>404789</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,51 +3404,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
       </c>
       <c r="I39" s="7">
-        <v>274012</v>
+        <v>255579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
       </c>
       <c r="N39" s="7">
-        <v>551235</v>
+        <v>525215</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3442,46 +3457,46 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>2388</v>
+        <v>2458</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>7073</v>
+        <v>6604</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M40" s="7">
         <v>8</v>
       </c>
       <c r="N40" s="7">
-        <v>9461</v>
+        <v>9062</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,43 +3508,43 @@
         <v>7</v>
       </c>
       <c r="D41" s="7">
-        <v>6594</v>
+        <v>6374</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>8</v>
       </c>
       <c r="I41" s="7">
-        <v>5189</v>
+        <v>4930</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="M41" s="7">
         <v>15</v>
       </c>
       <c r="N41" s="7">
-        <v>11783</v>
+        <v>11304</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>246</v>
@@ -3538,13 +3553,13 @@
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>42</v>
       </c>
       <c r="D42" s="7">
-        <v>47199</v>
+        <v>46501</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>247</v>
@@ -3559,7 +3574,7 @@
         <v>60</v>
       </c>
       <c r="I42" s="7">
-        <v>53086</v>
+        <v>49400</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>250</v>
@@ -3574,7 +3589,7 @@
         <v>102</v>
       </c>
       <c r="N42" s="7">
-        <v>100285</v>
+        <v>95901</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>253</v>
@@ -3583,109 +3598,109 @@
         <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>160</v>
       </c>
       <c r="D43" s="7">
-        <v>160096</v>
+        <v>158750</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H43" s="7">
         <v>223</v>
       </c>
       <c r="I43" s="7">
-        <v>156557</v>
+        <v>145672</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
       </c>
       <c r="N43" s="7">
-        <v>316652</v>
+        <v>304422</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>379</v>
       </c>
       <c r="D44" s="7">
-        <v>403205</v>
+        <v>402096</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H44" s="7">
         <v>653</v>
       </c>
       <c r="I44" s="7">
-        <v>575333</v>
+        <v>636457</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M44" s="7">
         <v>1032</v>
       </c>
       <c r="N44" s="7">
-        <v>978538</v>
+        <v>1038552</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,51 +3712,51 @@
         <v>590</v>
       </c>
       <c r="D45" s="7">
-        <v>619482</v>
+        <v>616179</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
       </c>
       <c r="I45" s="7">
-        <v>797238</v>
+        <v>843063</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1540</v>
       </c>
       <c r="N45" s="7">
-        <v>1416719</v>
+        <v>1459242</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3756,40 +3771,40 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,199 +3816,199 @@
         <v>12</v>
       </c>
       <c r="D47" s="7">
-        <v>13004</v>
+        <v>10950</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
       </c>
       <c r="I47" s="7">
-        <v>4636</v>
+        <v>3813</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M47" s="7">
         <v>18</v>
       </c>
       <c r="N47" s="7">
-        <v>17640</v>
+        <v>14762</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>49793</v>
+        <v>41731</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H48" s="7">
         <v>44</v>
       </c>
       <c r="I48" s="7">
-        <v>41129</v>
+        <v>33582</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M48" s="7">
         <v>91</v>
       </c>
       <c r="N48" s="7">
-        <v>90923</v>
+        <v>75313</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>209</v>
       </c>
       <c r="D49" s="7">
-        <v>232217</v>
+        <v>196106</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H49" s="7">
         <v>247</v>
       </c>
       <c r="I49" s="7">
-        <v>201513</v>
+        <v>166438</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="M49" s="7">
         <v>456</v>
       </c>
       <c r="N49" s="7">
-        <v>433729</v>
+        <v>362544</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>493</v>
       </c>
       <c r="D50" s="7">
-        <v>562580</v>
+        <v>678390</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H50" s="7">
         <v>763</v>
       </c>
       <c r="I50" s="7">
-        <v>617698</v>
+        <v>510965</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M50" s="7">
         <v>1256</v>
       </c>
       <c r="N50" s="7">
-        <v>1180277</v>
+        <v>1189355</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,46 +4020,46 @@
         <v>761</v>
       </c>
       <c r="D51" s="7">
-        <v>857593</v>
+        <v>927177</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
       </c>
       <c r="N51" s="7">
-        <v>1723265</v>
+        <v>1642569</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,46 +4073,46 @@
         <v>9</v>
       </c>
       <c r="D52" s="7">
-        <v>10298</v>
+        <v>10402</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="H52" s="7">
         <v>14</v>
       </c>
       <c r="I52" s="7">
-        <v>11793</v>
+        <v>11008</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>309</v>
+        <v>100</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M52" s="7">
         <v>23</v>
       </c>
       <c r="N52" s="7">
-        <v>22091</v>
+        <v>21410</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>140</v>
+        <v>313</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,199 +4124,199 @@
         <v>40</v>
       </c>
       <c r="D53" s="7">
-        <v>35711</v>
+        <v>33489</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="H53" s="7">
         <v>33</v>
       </c>
       <c r="I53" s="7">
-        <v>23138</v>
+        <v>21051</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>313</v>
+        <v>244</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>314</v>
+        <v>203</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
       </c>
       <c r="N53" s="7">
-        <v>58849</v>
+        <v>54540</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>98</v>
+        <v>152</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>242</v>
+        <v>317</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="7">
         <v>175</v>
       </c>
       <c r="D54" s="7">
-        <v>182683</v>
+        <v>171711</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H54" s="7">
         <v>203</v>
       </c>
       <c r="I54" s="7">
-        <v>154176</v>
+        <v>139451</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M54" s="7">
         <v>378</v>
       </c>
       <c r="N54" s="7">
-        <v>336859</v>
+        <v>311163</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>770</v>
       </c>
       <c r="D55" s="7">
-        <v>776607</v>
+        <v>729351</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H55" s="7">
         <v>1163</v>
       </c>
       <c r="I55" s="7">
-        <v>761803</v>
+        <v>683939</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M55" s="7">
         <v>1933</v>
       </c>
       <c r="N55" s="7">
-        <v>1538410</v>
+        <v>1413290</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2356</v>
       </c>
       <c r="D56" s="7">
-        <v>2352921</v>
+        <v>2489042</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H56" s="7">
         <v>3916</v>
       </c>
       <c r="I56" s="7">
-        <v>2830887</v>
+        <v>2782451</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="M56" s="7">
         <v>6272</v>
       </c>
       <c r="N56" s="7">
-        <v>5183808</v>
+        <v>5271493</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,51 +4328,51 @@
         <v>3350</v>
       </c>
       <c r="D57" s="7">
-        <v>3358220</v>
+        <v>3433995</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
       </c>
       <c r="I57" s="7">
-        <v>3781797</v>
+        <v>3637900</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
       </c>
       <c r="N57" s="7">
-        <v>7140017</v>
+        <v>7071896</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
